--- a/数据描述性统计.xlsx
+++ b/数据描述性统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa学习\大三下\系统建模与仿真\大作业\GA_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BD9C4B-80FE-4A49-B1DB-43C4D0E60B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D84DF7F-5230-4E71-BC4B-217E084C1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,6 +71,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,13 +137,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -161,10 +168,17 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,7 +482,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -539,7 +553,7 @@
       <c r="C3" s="4">
         <v>1.93527590091854E-3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="9">
         <v>1.9019547980192501E-2</v>
       </c>
       <c r="E3" s="4">
@@ -575,7 +589,7 @@
       <c r="C4" s="4">
         <v>2.9701943335614621E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>2.5449248079868599E-2</v>
       </c>
       <c r="E4" s="4">
@@ -611,7 +625,7 @@
       <c r="C5" s="4">
         <v>1.1369917926201481E-3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="9">
         <v>2.4615598738083871E-2</v>
       </c>
       <c r="E5" s="4">
@@ -647,7 +661,7 @@
       <c r="C6" s="4">
         <v>2.7243199229381992E-3</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="9">
         <v>1.8475951700394289E-2</v>
       </c>
       <c r="E6" s="4">
@@ -683,7 +697,7 @@
       <c r="C7" s="4">
         <v>3.121850608059017E-3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="9">
         <v>3.4499012712611077E-2</v>
       </c>
       <c r="E7" s="4">
@@ -719,7 +733,7 @@
       <c r="C8" s="4">
         <v>1.753121083527502E-3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="9">
         <v>3.0636485330772401E-2</v>
       </c>
       <c r="E8" s="4">
@@ -755,7 +769,7 @@
       <c r="C9" s="8">
         <v>2.7554550866926951E-3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="10">
         <v>3.1647174474423098E-2</v>
       </c>
       <c r="E9" s="8">

--- a/数据描述性统计.xlsx
+++ b/数据描述性统计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aa学习\大三下\系统建模与仿真\大作业\GA_portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D84DF7F-5230-4E71-BC4B-217E084C1825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FCA56-0147-4D98-86CA-8E0852416B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>count</t>
   </si>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>韩国综指</t>
+  </si>
+  <si>
+    <t>数据来源：同花顺iFinD</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -73,9 +77,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +106,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -146,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -168,11 +179,14 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -482,7 +496,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -796,7 +810,9 @@
       <c r="P9" s="1"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
